--- a/biology/Botanique/Jardin_Toussaint-Louverture/Jardin_Toussaint-Louverture.xlsx
+++ b/biology/Botanique/Jardin_Toussaint-Louverture/Jardin_Toussaint-Louverture.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">
 Le jardin Toussaint-Louverture est un espace vert du 20e arrondissement de Paris.
@@ -512,7 +524,9 @@
           <t>Situation et accès</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Le site est accessible par le 47, rue des Cendriers.
 Il est desservi par les lignes 2 et 3 aux stations de métro Père Lachaise et Ménilmontant.
@@ -544,10 +558,12 @@
           <t>Origine du nom</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">L'espace vert situé 73 rue des Amandiers est appelé « square des Amandiers » car il n'a pas de dénomination particulière. Avant d'être urbanisée, ladite rue était bordée bordée d’amandiers ; c'est pourquoi des amandiers ont été plantés dans le jardin (en plus des traditionnels cerisiers, chênes, etc., buissons de lavandes et de romarin, et massifs de plantes vivaces).
-En 2021, l'espace vert est finalement dénommé en hommage à Toussaint Louverture, chef de la révolution haïtienne[1],[2].
+En 2021, l'espace vert est finalement dénommé en hommage à Toussaint Louverture, chef de la révolution haïtienne,.
 </t>
         </is>
       </c>
@@ -576,9 +592,11 @@
           <t>Historique</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Le 5 novembre 2010, un « Bench by the road » (Banc au bord de la route) est inauguré rue Louis-Delgrès par la Toni Morrison Society, en présence de la romancière Toni Morrison. Il rend hommage aux victimes de l'esclavage et aux combats de Louis Delgrès[3],[4]. Le banc de mémoire à Louis Delgrès est déplacé jardin Toussaint-Louverture le 10 mai 2023, lors de la Journée nationale des mémoires de la traite, de l'esclavage et de leur abolition[5].
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Le 5 novembre 2010, un « Bench by the road » (Banc au bord de la route) est inauguré rue Louis-Delgrès par la Toni Morrison Society, en présence de la romancière Toni Morrison. Il rend hommage aux victimes de l'esclavage et aux combats de Louis Delgrès,. Le banc de mémoire à Louis Delgrès est déplacé jardin Toussaint-Louverture le 10 mai 2023, lors de la Journée nationale des mémoires de la traite, de l'esclavage et de leur abolition.
 </t>
         </is>
       </c>
